--- a/NatmiData/natmiOut_TPM/OldD4/LR-pairs_lrc2p/C1qa-Cd93.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD4/LR-pairs_lrc2p/C1qa-Cd93.xlsx
@@ -534,22 +534,22 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F2">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G2">
-        <v>0.01249966666666667</v>
+        <v>1.838251333333333</v>
       </c>
       <c r="H2">
-        <v>0.037499</v>
+        <v>5.514754</v>
       </c>
       <c r="I2">
-        <v>4.922452635634417E-05</v>
+        <v>0.004801581688401318</v>
       </c>
       <c r="J2">
-        <v>4.925314557495024E-05</v>
+        <v>0.004827981053047166</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -558,28 +558,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>196.8487906666667</v>
+        <v>162.7225033333333</v>
       </c>
       <c r="N2">
-        <v>590.546372</v>
+        <v>488.16751</v>
       </c>
       <c r="O2">
-        <v>0.5898085209504823</v>
+        <v>0.5231437953541009</v>
       </c>
       <c r="P2">
-        <v>0.5923834015035012</v>
+        <v>0.5247717033381212</v>
       </c>
       <c r="Q2">
-        <v>2.460544267069778</v>
+        <v>299.1248587158377</v>
       </c>
       <c r="R2">
-        <v>22.144898403628</v>
+        <v>2692.12372844254</v>
       </c>
       <c r="S2">
-        <v>2.903304508472339E-05</v>
+        <v>0.002511917668173018</v>
       </c>
       <c r="T2">
-        <v>2.917674591043614E-05</v>
+        <v>0.002533587840891737</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -596,22 +596,22 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F3">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G3">
-        <v>0.01249966666666667</v>
+        <v>1.838251333333333</v>
       </c>
       <c r="H3">
-        <v>0.037499</v>
+        <v>5.514754</v>
       </c>
       <c r="I3">
-        <v>4.922452635634417E-05</v>
+        <v>0.004801581688401318</v>
       </c>
       <c r="J3">
-        <v>4.925314557495024E-05</v>
+        <v>0.004827981053047166</v>
       </c>
       <c r="K3">
         <v>1</v>
@@ -626,22 +626,22 @@
         <v>0.869893</v>
       </c>
       <c r="O3">
-        <v>0.0008688061226717314</v>
+        <v>0.0009322191998643353</v>
       </c>
       <c r="P3">
-        <v>0.0008725990010553907</v>
+        <v>0.0009351200601857102</v>
       </c>
       <c r="Q3">
-        <v>0.003624457511888889</v>
+        <v>0.5330273223691111</v>
       </c>
       <c r="R3">
-        <v>0.032620117607</v>
+        <v>4.797245901322</v>
       </c>
       <c r="S3">
-        <v>4.276656988400782E-08</v>
+        <v>4.476126639644721E-06</v>
       </c>
       <c r="T3">
-        <v>4.297824562753731E-08</v>
+        <v>4.514741932900934E-06</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -658,22 +658,22 @@
         <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F4">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G4">
-        <v>0.01249966666666667</v>
+        <v>1.838251333333333</v>
       </c>
       <c r="H4">
-        <v>0.037499</v>
+        <v>5.514754</v>
       </c>
       <c r="I4">
-        <v>4.922452635634417E-05</v>
+        <v>0.004801581688401318</v>
       </c>
       <c r="J4">
-        <v>4.925314557495024E-05</v>
+        <v>0.004827981053047166</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -682,28 +682,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>54.63182800000001</v>
+        <v>61.580654</v>
       </c>
       <c r="N4">
-        <v>163.895484</v>
+        <v>184.741962</v>
       </c>
       <c r="O4">
-        <v>0.1636907067621498</v>
+        <v>0.1979783766474813</v>
       </c>
       <c r="P4">
-        <v>0.1644053183735124</v>
+        <v>0.1985944416431287</v>
       </c>
       <c r="Q4">
-        <v>0.6828796393906666</v>
+        <v>113.2007193230387</v>
       </c>
       <c r="R4">
-        <v>6.145916754516</v>
+        <v>1018.806473907348</v>
       </c>
       <c r="S4">
-        <v>8.057597509302048E-06</v>
+        <v>0.0009506093480099653</v>
       </c>
       <c r="T4">
-        <v>8.097479079146644E-06</v>
+        <v>0.0009588102014935064</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -720,22 +720,22 @@
         <v>23</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F5">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G5">
-        <v>0.01249966666666667</v>
+        <v>1.838251333333333</v>
       </c>
       <c r="H5">
-        <v>0.037499</v>
+        <v>5.514754</v>
       </c>
       <c r="I5">
-        <v>4.922452635634417E-05</v>
+        <v>0.004801581688401318</v>
       </c>
       <c r="J5">
-        <v>4.925314557495024E-05</v>
+        <v>0.004827981053047166</v>
       </c>
       <c r="K5">
         <v>2</v>
@@ -744,28 +744,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>4.352083</v>
+        <v>2.8947245</v>
       </c>
       <c r="N5">
-        <v>8.704166000000001</v>
+        <v>5.789449</v>
       </c>
       <c r="O5">
-        <v>0.0130399360269903</v>
+        <v>0.009306378223129816</v>
       </c>
       <c r="P5">
-        <v>0.008731242298328987</v>
+        <v>0.00622355841157717</v>
       </c>
       <c r="Q5">
-        <v>0.05439958680566667</v>
+        <v>5.321231171757667</v>
       </c>
       <c r="R5">
-        <v>0.326397520834</v>
+        <v>31.927387030546</v>
       </c>
       <c r="S5">
-        <v>6.418846746456257E-07</v>
+        <v>4.468533526151692E-05</v>
       </c>
       <c r="T5">
-        <v>4.300411479697607E-07</v>
+        <v>3.004722209362689E-05</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -782,22 +782,22 @@
         <v>24</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F6">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G6">
-        <v>0.01249966666666667</v>
+        <v>1.838251333333333</v>
       </c>
       <c r="H6">
-        <v>0.037499</v>
+        <v>5.514754</v>
       </c>
       <c r="I6">
-        <v>4.922452635634417E-05</v>
+        <v>0.004801581688401318</v>
       </c>
       <c r="J6">
-        <v>4.925314557495024E-05</v>
+        <v>0.004827981053047166</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -806,28 +806,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>77.62766766666668</v>
+        <v>83.559527</v>
       </c>
       <c r="N6">
-        <v>232.883003</v>
+        <v>250.678581</v>
       </c>
       <c r="O6">
-        <v>0.2325920301377057</v>
+        <v>0.2686392305754237</v>
       </c>
       <c r="P6">
-        <v>0.233607438823602</v>
+        <v>0.2694751765469873</v>
       </c>
       <c r="Q6">
-        <v>0.9703199699441112</v>
+        <v>153.6034119204527</v>
       </c>
       <c r="R6">
-        <v>8.732879729497</v>
+        <v>1382.430707284074</v>
       </c>
       <c r="S6">
-        <v>1.144923251778909E-05</v>
+        <v>0.001289893210317174</v>
       </c>
       <c r="T6">
-        <v>1.150590119177015E-05</v>
+        <v>0.001301021046635395</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -856,10 +856,10 @@
         <v>0.733016</v>
       </c>
       <c r="I7">
-        <v>0.0009622220702317923</v>
+        <v>0.0006382217960955612</v>
       </c>
       <c r="J7">
-        <v>0.0009627815076873443</v>
+        <v>0.0006417307752223256</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -868,28 +868,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>196.8487906666667</v>
+        <v>162.7225033333333</v>
       </c>
       <c r="N7">
-        <v>590.546372</v>
+        <v>488.16751</v>
       </c>
       <c r="O7">
-        <v>0.5898085209504823</v>
+        <v>0.5231437953541009</v>
       </c>
       <c r="P7">
-        <v>0.5923834015035012</v>
+        <v>0.5247717033381212</v>
       </c>
       <c r="Q7">
-        <v>48.09777104643911</v>
+        <v>39.75939950112889</v>
       </c>
       <c r="R7">
-        <v>432.879939417952</v>
+        <v>357.83459551016</v>
       </c>
       <c r="S7">
-        <v>0.0005675267760693245</v>
+        <v>0.000333881772687143</v>
       </c>
       <c r="T7">
-        <v>0.0005703357844284983</v>
+        <v>0.0003367621519979128</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -918,10 +918,10 @@
         <v>0.733016</v>
       </c>
       <c r="I8">
-        <v>0.0009622220702317923</v>
+        <v>0.0006382217960955612</v>
       </c>
       <c r="J8">
-        <v>0.0009627815076873443</v>
+        <v>0.0006417307752223256</v>
       </c>
       <c r="K8">
         <v>1</v>
@@ -936,10 +936,10 @@
         <v>0.869893</v>
       </c>
       <c r="O8">
-        <v>0.0008688061226717314</v>
+        <v>0.0009322191998643353</v>
       </c>
       <c r="P8">
-        <v>0.0008725990010553907</v>
+        <v>0.0009351200601857102</v>
       </c>
       <c r="Q8">
         <v>0.07084949858755556</v>
@@ -948,10 +948,10 @@
         <v>0.637645487288</v>
       </c>
       <c r="S8">
-        <v>8.359844259872498E-07</v>
+        <v>5.94962612092183E-07</v>
       </c>
       <c r="T8">
-        <v>8.401221818425797E-07</v>
+        <v>6.000953211489236E-07</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -980,10 +980,10 @@
         <v>0.733016</v>
       </c>
       <c r="I9">
-        <v>0.0009622220702317923</v>
+        <v>0.0006382217960955612</v>
       </c>
       <c r="J9">
-        <v>0.0009627815076873443</v>
+        <v>0.0006417307752223256</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -992,28 +992,28 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>54.63182800000001</v>
+        <v>61.580654</v>
       </c>
       <c r="N9">
-        <v>163.895484</v>
+        <v>184.741962</v>
       </c>
       <c r="O9">
-        <v>0.1636907067621498</v>
+        <v>0.1979783766474813</v>
       </c>
       <c r="P9">
-        <v>0.1644053183735124</v>
+        <v>0.1985944416431287</v>
       </c>
       <c r="Q9">
-        <v>13.34866801108267</v>
+        <v>15.04653489082133</v>
       </c>
       <c r="R9">
-        <v>120.138012099744</v>
+        <v>135.418814017392</v>
       </c>
       <c r="S9">
-        <v>0.000157506810738381</v>
+        <v>0.000126354115132039</v>
       </c>
       <c r="T9">
-        <v>0.0001582864002954681</v>
+        <v>0.0001274441649904899</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1042,10 +1042,10 @@
         <v>0.733016</v>
       </c>
       <c r="I10">
-        <v>0.0009622220702317923</v>
+        <v>0.0006382217960955612</v>
       </c>
       <c r="J10">
-        <v>0.0009627815076873443</v>
+        <v>0.0006417307752223256</v>
       </c>
       <c r="K10">
         <v>2</v>
@@ -1054,28 +1054,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>4.352083</v>
+        <v>2.8947245</v>
       </c>
       <c r="N10">
-        <v>8.704166000000001</v>
+        <v>5.789449</v>
       </c>
       <c r="O10">
-        <v>0.0130399360269903</v>
+        <v>0.009306378223129816</v>
       </c>
       <c r="P10">
-        <v>0.008731242298328987</v>
+        <v>0.00622355841157717</v>
       </c>
       <c r="Q10">
-        <v>1.063382157442667</v>
+        <v>0.7072931246973334</v>
       </c>
       <c r="R10">
-        <v>6.380292944656</v>
+        <v>4.243758748184</v>
       </c>
       <c r="S10">
-        <v>1.254731423958074E-05</v>
+        <v>5.939533424710528E-06</v>
       </c>
       <c r="T10">
-        <v>8.406278623968695E-06</v>
+        <v>3.993848964102843E-06</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1104,10 +1104,10 @@
         <v>0.733016</v>
       </c>
       <c r="I11">
-        <v>0.0009622220702317923</v>
+        <v>0.0006382217960955612</v>
       </c>
       <c r="J11">
-        <v>0.0009627815076873443</v>
+        <v>0.0006417307752223256</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1116,28 +1116,28 @@
         <v>1</v>
       </c>
       <c r="M11">
-        <v>77.62766766666668</v>
+        <v>83.559527</v>
       </c>
       <c r="N11">
-        <v>232.883003</v>
+        <v>250.678581</v>
       </c>
       <c r="O11">
-        <v>0.2325920301377057</v>
+        <v>0.2686392305754237</v>
       </c>
       <c r="P11">
-        <v>0.233607438823602</v>
+        <v>0.2694751765469873</v>
       </c>
       <c r="Q11">
-        <v>18.96744081411645</v>
+        <v>20.41682341447734</v>
       </c>
       <c r="R11">
-        <v>170.706967327048</v>
+        <v>183.751410730296</v>
       </c>
       <c r="S11">
-        <v>0.0002238051847585186</v>
+        <v>0.0001714514122395765</v>
       </c>
       <c r="T11">
-        <v>0.0002249129221575666</v>
+        <v>0.0001729305139486712</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1160,16 +1160,16 @@
         <v>1</v>
       </c>
       <c r="G12">
-        <v>130.3340303333333</v>
+        <v>121.6353303333333</v>
       </c>
       <c r="H12">
-        <v>391.002091</v>
+        <v>364.905991</v>
       </c>
       <c r="I12">
-        <v>0.5132641599460034</v>
+        <v>0.317716062107854</v>
       </c>
       <c r="J12">
-        <v>0.5135625725521465</v>
+        <v>0.3194628827852338</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1178,28 +1178,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>196.8487906666667</v>
+        <v>162.7225033333333</v>
       </c>
       <c r="N12">
-        <v>590.546372</v>
+        <v>488.16751</v>
       </c>
       <c r="O12">
-        <v>0.5898085209504823</v>
+        <v>0.5231437953541009</v>
       </c>
       <c r="P12">
-        <v>0.5923834015035012</v>
+        <v>0.5247717033381212</v>
       </c>
       <c r="Q12">
-        <v>25656.09625382932</v>
+        <v>19792.80544561693</v>
       </c>
       <c r="R12">
-        <v>230904.8662844639</v>
+        <v>178135.2490105524</v>
       </c>
       <c r="S12">
-        <v>0.302727575034644</v>
+        <v>0.166211186576062</v>
       </c>
       <c r="T12">
-        <v>0.3042259436133292</v>
+        <v>0.1676450811525137</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1222,16 +1222,16 @@
         <v>1</v>
       </c>
       <c r="G13">
-        <v>130.3340303333333</v>
+        <v>121.6353303333333</v>
       </c>
       <c r="H13">
-        <v>391.002091</v>
+        <v>364.905991</v>
       </c>
       <c r="I13">
-        <v>0.5132641599460034</v>
+        <v>0.317716062107854</v>
       </c>
       <c r="J13">
-        <v>0.5135625725521465</v>
+        <v>0.3194628827852338</v>
       </c>
       <c r="K13">
         <v>1</v>
@@ -1246,22 +1246,22 @@
         <v>0.869893</v>
       </c>
       <c r="O13">
-        <v>0.0008688061226717314</v>
+        <v>0.0009322191998643353</v>
       </c>
       <c r="P13">
-        <v>0.0008725990010553907</v>
+        <v>0.0009351200601857102</v>
       </c>
       <c r="Q13">
-        <v>37.79222021625144</v>
+        <v>35.26990746988478</v>
       </c>
       <c r="R13">
-        <v>340.129981946263</v>
+        <v>317.429167228963</v>
       </c>
       <c r="S13">
-        <v>0.0004459270447090506</v>
+        <v>0.0002961810132022311</v>
       </c>
       <c r="T13">
-        <v>0.0004481341877884397</v>
+        <v>0.0002987361501772283</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1284,16 +1284,16 @@
         <v>1</v>
       </c>
       <c r="G14">
-        <v>130.3340303333333</v>
+        <v>121.6353303333333</v>
       </c>
       <c r="H14">
-        <v>391.002091</v>
+        <v>364.905991</v>
       </c>
       <c r="I14">
-        <v>0.5132641599460034</v>
+        <v>0.317716062107854</v>
       </c>
       <c r="J14">
-        <v>0.5135625725521465</v>
+        <v>0.3194628827852338</v>
       </c>
       <c r="K14">
         <v>3</v>
@@ -1302,28 +1302,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>54.63182800000001</v>
+        <v>61.580654</v>
       </c>
       <c r="N14">
-        <v>163.895484</v>
+        <v>184.741962</v>
       </c>
       <c r="O14">
-        <v>0.1636907067621498</v>
+        <v>0.1979783766474813</v>
       </c>
       <c r="P14">
-        <v>0.1644053183735124</v>
+        <v>0.1985944416431287</v>
       </c>
       <c r="Q14">
-        <v>7120.386327717451</v>
+        <v>7490.383191432705</v>
       </c>
       <c r="R14">
-        <v>64083.47694945705</v>
+        <v>67413.44872289433</v>
       </c>
       <c r="S14">
-        <v>0.08401657309724241</v>
+        <v>0.06290091021094328</v>
       </c>
       <c r="T14">
-        <v>0.0844324182451557</v>
+        <v>0.06344355283243779</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1346,16 +1346,16 @@
         <v>1</v>
       </c>
       <c r="G15">
-        <v>130.3340303333333</v>
+        <v>121.6353303333333</v>
       </c>
       <c r="H15">
-        <v>391.002091</v>
+        <v>364.905991</v>
       </c>
       <c r="I15">
-        <v>0.5132641599460034</v>
+        <v>0.317716062107854</v>
       </c>
       <c r="J15">
-        <v>0.5135625725521465</v>
+        <v>0.3194628827852338</v>
       </c>
       <c r="K15">
         <v>2</v>
@@ -1364,28 +1364,28 @@
         <v>1</v>
       </c>
       <c r="M15">
-        <v>4.352083</v>
+        <v>2.8947245</v>
       </c>
       <c r="N15">
-        <v>8.704166000000001</v>
+        <v>5.789449</v>
       </c>
       <c r="O15">
-        <v>0.0130399360269903</v>
+        <v>0.009306378223129816</v>
       </c>
       <c r="P15">
-        <v>0.008731242298328987</v>
+        <v>0.00622355841157717</v>
       </c>
       <c r="Q15">
-        <v>567.2245177351845</v>
+        <v>352.1007707814932</v>
       </c>
       <c r="R15">
-        <v>3403.347106411106</v>
+        <v>2112.604624688959</v>
       </c>
       <c r="S15">
-        <v>0.006692931810642799</v>
+        <v>0.002956785841539092</v>
       </c>
       <c r="T15">
-        <v>0.004484039256305951</v>
+        <v>0.001988195911344734</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1408,16 +1408,16 @@
         <v>1</v>
       </c>
       <c r="G16">
-        <v>130.3340303333333</v>
+        <v>121.6353303333333</v>
       </c>
       <c r="H16">
-        <v>391.002091</v>
+        <v>364.905991</v>
       </c>
       <c r="I16">
-        <v>0.5132641599460034</v>
+        <v>0.317716062107854</v>
       </c>
       <c r="J16">
-        <v>0.5135625725521465</v>
+        <v>0.3194628827852338</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1426,28 +1426,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>77.62766766666668</v>
+        <v>83.559527</v>
       </c>
       <c r="N16">
-        <v>232.883003</v>
+        <v>250.678581</v>
       </c>
       <c r="O16">
-        <v>0.2325920301377057</v>
+        <v>0.2686392305754237</v>
       </c>
       <c r="P16">
-        <v>0.233607438823602</v>
+        <v>0.2694751765469873</v>
       </c>
       <c r="Q16">
-        <v>10117.52679237326</v>
+        <v>10163.79066914208</v>
       </c>
       <c r="R16">
-        <v>91057.74113135929</v>
+        <v>91474.11602227877</v>
       </c>
       <c r="S16">
-        <v>0.119381152958765</v>
+        <v>0.0853509984661074</v>
       </c>
       <c r="T16">
-        <v>0.1199720372495672</v>
+        <v>0.08608731673876038</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1470,16 +1470,16 @@
         <v>0.5</v>
       </c>
       <c r="G17">
-        <v>0.4426515</v>
+        <v>6.280146</v>
       </c>
       <c r="H17">
-        <v>0.8853030000000001</v>
+        <v>12.560292</v>
       </c>
       <c r="I17">
-        <v>0.001743191319375873</v>
+        <v>0.01640397778436905</v>
       </c>
       <c r="J17">
-        <v>0.001162803209070647</v>
+        <v>0.01099611184773426</v>
       </c>
       <c r="K17">
         <v>3</v>
@@ -1488,28 +1488,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>196.8487906666667</v>
+        <v>162.7225033333333</v>
       </c>
       <c r="N17">
-        <v>590.546372</v>
+        <v>488.16751</v>
       </c>
       <c r="O17">
-        <v>0.5898085209504823</v>
+        <v>0.5231437953541009</v>
       </c>
       <c r="P17">
-        <v>0.5923834015035012</v>
+        <v>0.5247717033381212</v>
       </c>
       <c r="Q17">
-        <v>87.135412461786</v>
+        <v>1021.92107841882</v>
       </c>
       <c r="R17">
-        <v>522.8124747707161</v>
+        <v>6131.52647051292</v>
       </c>
       <c r="S17">
-        <v>0.001028149093814803</v>
+        <v>0.008581639197019181</v>
       </c>
       <c r="T17">
-        <v>0.0006888253202684565</v>
+        <v>0.005770448344432002</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1532,16 +1532,16 @@
         <v>0.5</v>
       </c>
       <c r="G18">
-        <v>0.4426515</v>
+        <v>6.280146</v>
       </c>
       <c r="H18">
-        <v>0.8853030000000001</v>
+        <v>12.560292</v>
       </c>
       <c r="I18">
-        <v>0.001743191319375873</v>
+        <v>0.01640397778436905</v>
       </c>
       <c r="J18">
-        <v>0.001162803209070647</v>
+        <v>0.01099611184773426</v>
       </c>
       <c r="K18">
         <v>1</v>
@@ -1556,22 +1556,22 @@
         <v>0.869893</v>
       </c>
       <c r="O18">
-        <v>0.0008688061226717314</v>
+        <v>0.0009322191998643353</v>
       </c>
       <c r="P18">
-        <v>0.0008725990010553907</v>
+        <v>0.0009351200601857102</v>
       </c>
       <c r="Q18">
-        <v>0.1283531470965</v>
+        <v>1.821018348126</v>
       </c>
       <c r="R18">
-        <v>0.7701188825790001</v>
+        <v>10.926110088756</v>
       </c>
       <c r="S18">
-        <v>1.514495291261972E-06</v>
+        <v>1.529210304473685E-05</v>
       </c>
       <c r="T18">
-        <v>1.014660918659049E-06</v>
+        <v>1.028268477286206E-05</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1594,16 +1594,16 @@
         <v>0.5</v>
       </c>
       <c r="G19">
-        <v>0.4426515</v>
+        <v>6.280146</v>
       </c>
       <c r="H19">
-        <v>0.8853030000000001</v>
+        <v>12.560292</v>
       </c>
       <c r="I19">
-        <v>0.001743191319375873</v>
+        <v>0.01640397778436905</v>
       </c>
       <c r="J19">
-        <v>0.001162803209070647</v>
+        <v>0.01099611184773426</v>
       </c>
       <c r="K19">
         <v>3</v>
@@ -1612,28 +1612,28 @@
         <v>1</v>
       </c>
       <c r="M19">
-        <v>54.63182800000001</v>
+        <v>61.580654</v>
       </c>
       <c r="N19">
-        <v>163.895484</v>
+        <v>184.741962</v>
       </c>
       <c r="O19">
-        <v>0.1636907067621498</v>
+        <v>0.1979783766474813</v>
       </c>
       <c r="P19">
-        <v>0.1644053183735124</v>
+        <v>0.1985944416431287</v>
       </c>
       <c r="Q19">
-        <v>24.182860611942</v>
+        <v>386.7354978954841</v>
       </c>
       <c r="R19">
-        <v>145.097163671652</v>
+        <v>2320.412987372904</v>
       </c>
       <c r="S19">
-        <v>0.0002853442190902811</v>
+        <v>0.003247632892310731</v>
       </c>
       <c r="T19">
-        <v>0.0001911710317930015</v>
+        <v>0.002183766692646178</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1656,16 +1656,16 @@
         <v>0.5</v>
       </c>
       <c r="G20">
-        <v>0.4426515</v>
+        <v>6.280146</v>
       </c>
       <c r="H20">
-        <v>0.8853030000000001</v>
+        <v>12.560292</v>
       </c>
       <c r="I20">
-        <v>0.001743191319375873</v>
+        <v>0.01640397778436905</v>
       </c>
       <c r="J20">
-        <v>0.001162803209070647</v>
+        <v>0.01099611184773426</v>
       </c>
       <c r="K20">
         <v>2</v>
@@ -1674,28 +1674,28 @@
         <v>1</v>
       </c>
       <c r="M20">
-        <v>4.352083</v>
+        <v>2.8947245</v>
       </c>
       <c r="N20">
-        <v>8.704166000000001</v>
+        <v>5.789449</v>
       </c>
       <c r="O20">
-        <v>0.0130399360269903</v>
+        <v>0.009306378223129816</v>
       </c>
       <c r="P20">
-        <v>0.008731242298328987</v>
+        <v>0.00622355841157717</v>
       </c>
       <c r="Q20">
-        <v>1.9264560680745</v>
+        <v>18.179292489777</v>
       </c>
       <c r="R20">
-        <v>7.705824272298001</v>
+        <v>72.71716995910801</v>
       </c>
       <c r="S20">
-        <v>2.273110328746619E-05</v>
+        <v>0.0001526616216251574</v>
       </c>
       <c r="T20">
-        <v>1.015271656367031E-05</v>
+        <v>6.843494438460993E-05</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1718,16 +1718,16 @@
         <v>0.5</v>
       </c>
       <c r="G21">
-        <v>0.4426515</v>
+        <v>6.280146</v>
       </c>
       <c r="H21">
-        <v>0.8853030000000001</v>
+        <v>12.560292</v>
       </c>
       <c r="I21">
-        <v>0.001743191319375873</v>
+        <v>0.01640397778436905</v>
       </c>
       <c r="J21">
-        <v>0.001162803209070647</v>
+        <v>0.01099611184773426</v>
       </c>
       <c r="K21">
         <v>3</v>
@@ -1736,28 +1736,28 @@
         <v>1</v>
       </c>
       <c r="M21">
-        <v>77.62766766666668</v>
+        <v>83.559527</v>
       </c>
       <c r="N21">
-        <v>232.883003</v>
+        <v>250.678581</v>
       </c>
       <c r="O21">
-        <v>0.2325920301377057</v>
+        <v>0.2686392305754237</v>
       </c>
       <c r="P21">
-        <v>0.233607438823602</v>
+        <v>0.2694751765469873</v>
       </c>
       <c r="Q21">
-        <v>34.36200353415151</v>
+        <v>524.766029250942</v>
       </c>
       <c r="R21">
-        <v>206.172021204909</v>
+        <v>3148.596175505652</v>
       </c>
       <c r="S21">
-        <v>0.0004054524078920599</v>
+        <v>0.004406751970369245</v>
       </c>
       <c r="T21">
-        <v>0.0002716394795268591</v>
+        <v>0.002963179181498608</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1780,16 +1780,16 @@
         <v>1</v>
       </c>
       <c r="G22">
-        <v>122.8981596666667</v>
+        <v>252.8448076666667</v>
       </c>
       <c r="H22">
-        <v>368.694479</v>
+        <v>758.5344230000001</v>
       </c>
       <c r="I22">
-        <v>0.4839812021380325</v>
+        <v>0.66044015662328</v>
       </c>
       <c r="J22">
-        <v>0.4842625895855205</v>
+        <v>0.6640712935387625</v>
       </c>
       <c r="K22">
         <v>3</v>
@@ -1798,28 +1798,28 @@
         <v>1</v>
       </c>
       <c r="M22">
-        <v>196.8487906666667</v>
+        <v>162.7225033333333</v>
       </c>
       <c r="N22">
-        <v>590.546372</v>
+        <v>488.16751</v>
       </c>
       <c r="O22">
-        <v>0.5898085209504823</v>
+        <v>0.5231437953541009</v>
       </c>
       <c r="P22">
-        <v>0.5923834015035012</v>
+        <v>0.5247717033381212</v>
       </c>
       <c r="Q22">
-        <v>24192.35410554225</v>
+        <v>41143.5400583552</v>
       </c>
       <c r="R22">
-        <v>217731.1869498802</v>
+        <v>370291.8605251968</v>
       </c>
       <c r="S22">
-        <v>0.2854562370008694</v>
+        <v>0.3455051701401596</v>
       </c>
       <c r="T22">
-        <v>0.2868691200395647</v>
+        <v>0.3484858238482859</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1842,16 +1842,16 @@
         <v>1</v>
       </c>
       <c r="G23">
-        <v>122.8981596666667</v>
+        <v>252.8448076666667</v>
       </c>
       <c r="H23">
-        <v>368.694479</v>
+        <v>758.5344230000001</v>
       </c>
       <c r="I23">
-        <v>0.4839812021380325</v>
+        <v>0.66044015662328</v>
       </c>
       <c r="J23">
-        <v>0.4842625895855205</v>
+        <v>0.6640712935387625</v>
       </c>
       <c r="K23">
         <v>1</v>
@@ -1866,22 +1866,22 @@
         <v>0.869893</v>
       </c>
       <c r="O23">
-        <v>0.0008688061226717314</v>
+        <v>0.0009322191998643353</v>
       </c>
       <c r="P23">
-        <v>0.0008725990010553907</v>
+        <v>0.0009351200601857102</v>
       </c>
       <c r="Q23">
-        <v>35.63608293563856</v>
+        <v>73.31597609185989</v>
       </c>
       <c r="R23">
-        <v>320.724746420747</v>
+        <v>659.8437848267391</v>
       </c>
       <c r="S23">
-        <v>0.0004204858316755475</v>
+        <v>0.0006156749943656304</v>
       </c>
       <c r="T23">
-        <v>0.0004225670519208219</v>
+        <v>0.00062098638798157</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1904,16 +1904,16 @@
         <v>1</v>
       </c>
       <c r="G24">
-        <v>122.8981596666667</v>
+        <v>252.8448076666667</v>
       </c>
       <c r="H24">
-        <v>368.694479</v>
+        <v>758.5344230000001</v>
       </c>
       <c r="I24">
-        <v>0.4839812021380325</v>
+        <v>0.66044015662328</v>
       </c>
       <c r="J24">
-        <v>0.4842625895855205</v>
+        <v>0.6640712935387625</v>
       </c>
       <c r="K24">
         <v>3</v>
@@ -1922,28 +1922,28 @@
         <v>1</v>
       </c>
       <c r="M24">
-        <v>54.63182800000001</v>
+        <v>61.580654</v>
       </c>
       <c r="N24">
-        <v>163.895484</v>
+        <v>184.741962</v>
       </c>
       <c r="O24">
-        <v>0.1636907067621498</v>
+        <v>0.1979783766474813</v>
       </c>
       <c r="P24">
-        <v>0.1644053183735124</v>
+        <v>0.1985944416431287</v>
       </c>
       <c r="Q24">
-        <v>6714.151120425871</v>
+        <v>15570.34861661755</v>
       </c>
       <c r="R24">
-        <v>60427.36008383284</v>
+        <v>140133.1375495579</v>
       </c>
       <c r="S24">
-        <v>0.07922322503756944</v>
+        <v>0.1307528700810853</v>
       </c>
       <c r="T24">
-        <v>0.07961534521718905</v>
+        <v>0.1318808677515607</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -1966,16 +1966,16 @@
         <v>1</v>
       </c>
       <c r="G25">
-        <v>122.8981596666667</v>
+        <v>252.8448076666667</v>
       </c>
       <c r="H25">
-        <v>368.694479</v>
+        <v>758.5344230000001</v>
       </c>
       <c r="I25">
-        <v>0.4839812021380325</v>
+        <v>0.66044015662328</v>
       </c>
       <c r="J25">
-        <v>0.4842625895855205</v>
+        <v>0.6640712935387625</v>
       </c>
       <c r="K25">
         <v>2</v>
@@ -1984,28 +1984,28 @@
         <v>1</v>
       </c>
       <c r="M25">
-        <v>4.352083</v>
+        <v>2.8947245</v>
       </c>
       <c r="N25">
-        <v>8.704166000000001</v>
+        <v>5.789449</v>
       </c>
       <c r="O25">
-        <v>0.0130399360269903</v>
+        <v>0.009306378223129816</v>
       </c>
       <c r="P25">
-        <v>0.008731242298328987</v>
+        <v>0.00622355841157717</v>
       </c>
       <c r="Q25">
-        <v>534.8629914165857</v>
+        <v>731.916059450488</v>
       </c>
       <c r="R25">
-        <v>3209.177948499514</v>
+        <v>4391.496356702927</v>
       </c>
       <c r="S25">
-        <v>0.006311083914145804</v>
+        <v>0.006146305891279338</v>
       </c>
       <c r="T25">
-        <v>0.004228214005687427</v>
+        <v>0.004132886484790098</v>
       </c>
     </row>
     <row r="26" spans="1:20">
@@ -2028,16 +2028,16 @@
         <v>1</v>
       </c>
       <c r="G26">
-        <v>122.8981596666667</v>
+        <v>252.8448076666667</v>
       </c>
       <c r="H26">
-        <v>368.694479</v>
+        <v>758.5344230000001</v>
       </c>
       <c r="I26">
-        <v>0.4839812021380325</v>
+        <v>0.66044015662328</v>
       </c>
       <c r="J26">
-        <v>0.4842625895855205</v>
+        <v>0.6640712935387625</v>
       </c>
       <c r="K26">
         <v>3</v>
@@ -2046,28 +2046,28 @@
         <v>1</v>
       </c>
       <c r="M26">
-        <v>77.62766766666668</v>
+        <v>83.559527</v>
       </c>
       <c r="N26">
-        <v>232.883003</v>
+        <v>250.678581</v>
       </c>
       <c r="O26">
-        <v>0.2325920301377057</v>
+        <v>0.2686392305754237</v>
       </c>
       <c r="P26">
-        <v>0.233607438823602</v>
+        <v>0.2694751765469873</v>
       </c>
       <c r="Q26">
-        <v>9540.29749544894</v>
+        <v>21127.59253303264</v>
       </c>
       <c r="R26">
-        <v>85862.67745904045</v>
+        <v>190148.3327972938</v>
       </c>
       <c r="S26">
-        <v>0.1125701703537723</v>
+        <v>0.1774201355163902</v>
       </c>
       <c r="T26">
-        <v>0.1131273432711586</v>
+        <v>0.1789507290661442</v>
       </c>
     </row>
   </sheetData>
